--- a/Epidemiologia/higado.xlsx
+++ b/Epidemiologia/higado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B8C701-8E5B-4273-99AC-57BD0BD3E6BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E60607E-EA30-4D4D-A80E-178522808EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="prevalencia" sheetId="17" r:id="rId4"/>
     <sheet name="supervivencia" sheetId="18" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
   <si>
     <t>Sexo</t>
   </si>
@@ -103,12 +103,6 @@
     <t>España</t>
   </si>
   <si>
-    <t>Andalucía</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>SO y SN a 1, 3 y 5 años por sexos (pero sin ambos sexos)</t>
   </si>
   <si>
-    <t>MSCBS C25</t>
-  </si>
-  <si>
     <t>GLOBOCAN tiene datos de Europa, pero no son EU+EFTA así que los datos son mucho mayores</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t>DUDA SI PARA ESPAÑA USAR ECIS o MSCBS….</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>c22</t>
   </si>
   <si>
@@ -239,6 +224,9 @@
   </si>
   <si>
     <t>higado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSCBS </t>
   </si>
 </sst>
 </file>
@@ -353,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -375,15 +363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,19 +371,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1109,431 +1123,433 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="16"/>
-    <col min="4" max="4" width="4.5" style="16" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="16"/>
-    <col min="9" max="9" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="24"/>
+    <col min="4" max="4" width="4.5" style="24" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="24"/>
+    <col min="9" max="9" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="20" t="s">
-        <v>66</v>
+      <c r="B1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="32">
+        <v>596574</v>
+      </c>
+      <c r="D5" s="32">
+        <v>5</v>
+      </c>
+      <c r="E5" s="33">
+        <v>15.5</v>
+      </c>
+      <c r="F5" s="33">
+        <v>13.9</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="34">
+        <v>46803</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34">
+        <v>18.2</v>
+      </c>
+      <c r="F6" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G6" s="27">
+        <v>12.8</v>
+      </c>
+      <c r="H6" s="27">
+        <v>19.2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="34">
+        <v>4976</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34">
+        <v>21.9</v>
+      </c>
+      <c r="F7" s="32">
+        <v>10.9</v>
+      </c>
+      <c r="G7" s="27">
+        <v>15.7</v>
+      </c>
+      <c r="H7" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="32">
+        <v>4971</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="33">
+        <v>10.6</v>
+      </c>
+      <c r="G8" s="28">
+        <v>15.3</v>
+      </c>
+      <c r="H8" s="28">
+        <v>22.1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="27">
+        <v>244506</v>
+      </c>
+      <c r="D12" s="27">
+        <v>9</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="F12" s="28">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="35">
+        <v>20066</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="G13" s="28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H13" s="28">
+        <v>6.6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1654</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28">
+        <v>7</v>
+      </c>
+      <c r="F14" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="G14" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="H14" s="28">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1624</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="F15" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="G15" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="H15" s="28">
+        <v>5.8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="G17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="27">
+        <v>841080</v>
+      </c>
+      <c r="D18" s="27">
+        <v>6</v>
+      </c>
+      <c r="E18" s="28">
+        <v>11</v>
+      </c>
+      <c r="F18" s="28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="27">
+        <v>66869</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
+        <v>12.8</v>
+      </c>
+      <c r="F19" s="27">
+        <v>5.6</v>
+      </c>
+      <c r="G19" s="27">
+        <v>8.1</v>
+      </c>
+      <c r="H19" s="27">
+        <v>12.3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="27">
+        <v>6630</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27">
+        <v>14.3</v>
+      </c>
+      <c r="F20" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="G20" s="28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H20" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="27">
+        <v>6595</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28">
+        <v>14</v>
+      </c>
+      <c r="F21" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="G21" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="H21" s="28">
+        <v>13.9</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="14">
-        <v>596574</v>
-      </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
-        <v>15.5</v>
-      </c>
-      <c r="F5" s="13">
-        <v>13.9</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="15">
-        <v>46803</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
-        <v>18.2</v>
-      </c>
-      <c r="F6" s="14">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G6" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="H6" s="9">
-        <v>19.2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="15">
-        <v>4976</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15">
-        <v>21.9</v>
-      </c>
-      <c r="F7" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="G7" s="9">
-        <v>15.7</v>
-      </c>
-      <c r="H7" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="14">
-        <v>4971</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13">
-        <v>21.5</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="G8" s="10">
-        <v>15.3</v>
-      </c>
-      <c r="H8" s="10">
-        <v>22.1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9">
-        <v>244506</v>
-      </c>
-      <c r="D12" s="9">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="F12" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="21">
-        <v>20066</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="G13" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H13" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1654</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
-        <v>7</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="G14" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H14" s="10">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1624</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="G15" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H15" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9">
-        <v>841080</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6</v>
-      </c>
-      <c r="E18" s="10">
-        <v>11</v>
-      </c>
-      <c r="F18" s="10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9">
-        <v>66869</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="G19" s="9">
-        <v>8.1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>12.3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="9">
-        <v>6630</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>14.3</v>
-      </c>
-      <c r="F20" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="G20" s="10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H20" s="9">
-        <v>13.6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9">
-        <v>6595</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
-        <v>14</v>
-      </c>
-      <c r="F21" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="G21" s="10">
-        <v>9.4</v>
-      </c>
-      <c r="H21" s="10">
-        <v>13.9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="24" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="24" t="str">
         <f>IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="24" t="str">
         <f>IF(SUM(C7,C14)=C20,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="24" t="str">
         <f>IF(SUM(C8,C15)=C21,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
@@ -1546,372 +1562,416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="16"/>
-    <col min="4" max="4" width="5.9140625" style="16" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="24"/>
+    <col min="4" max="4" width="5.9140625" style="24" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="24"/>
+    <col min="9" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="27">
+        <v>548375</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>14.2</v>
+      </c>
+      <c r="F5" s="28">
+        <v>12.7</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="27">
+        <v>40722</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28">
+        <v>15.9</v>
+      </c>
+      <c r="F6" s="28">
+        <v>7</v>
+      </c>
+      <c r="G6" s="28">
+        <v>10.6</v>
+      </c>
+      <c r="H6" s="28">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="27">
+        <v>3872</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28">
+        <v>17</v>
+      </c>
+      <c r="F7" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="G7" s="28">
+        <v>11.5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="27">
+        <v>3577</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28">
+        <v>15.6</v>
+      </c>
+      <c r="F8" s="28">
+        <v>7</v>
+      </c>
+      <c r="G8" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="H8" s="28">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="27">
+        <v>233256</v>
+      </c>
+      <c r="D12" s="27">
+        <v>6</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6.2</v>
+      </c>
+      <c r="F12" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="27">
+        <v>19991</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="G13" s="28">
+        <v>3.7</v>
+      </c>
+      <c r="H13" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1697</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="F14" s="28">
+        <v>2</v>
+      </c>
+      <c r="G14" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="H14" s="28">
+        <v>5.8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1564</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28">
+        <v>6.6</v>
+      </c>
+      <c r="F15" s="28">
+        <v>2</v>
+      </c>
+      <c r="G15" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>5.6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="G17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="27">
+        <v>781631</v>
+      </c>
+      <c r="D18" s="27">
+        <v>4</v>
+      </c>
+      <c r="E18" s="27">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F18" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="27">
+        <v>60713</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
+        <v>11.6</v>
+      </c>
+      <c r="F19" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="28">
+        <v>6.9</v>
+      </c>
+      <c r="H19" s="28">
+        <v>11.1</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9">
-        <v>548375</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>14.2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>12.7</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="27">
+        <v>5569</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27">
+        <v>12</v>
+      </c>
+      <c r="F20" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="G20" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="H20" s="28">
+        <v>11.3</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9">
-        <v>233256</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9">
-        <v>781631</v>
-      </c>
-      <c r="D18" s="9">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F18" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" t="s">
-        <v>56</v>
+      <c r="B21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5141</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28">
+        <v>11</v>
+      </c>
+      <c r="F21" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G21" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="H21" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
-        <v>61</v>
+      <c r="B24" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="24" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C29" s="24" t="str">
+        <f t="shared" ref="C29:C31" si="0">IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C30" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C31" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
     </row>
@@ -1922,391 +1982,373 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2F39B0-EB7D-46B3-BE58-64D3EE1B3A5F}">
-  <dimension ref="B4:I31"/>
+  <dimension ref="B4:I23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" style="16"/>
-    <col min="8" max="8" width="10.58203125" style="16" customWidth="1"/>
+    <col min="3" max="7" width="10.6640625" style="13"/>
+    <col min="8" max="8" width="10.58203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="19">
+        <v>36</v>
+      </c>
+      <c r="C5" s="17">
         <v>236669</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>6.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>399509</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>10.4</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>471525</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>12.2</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="18">
+        <v>21240</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="E6" s="18">
+        <v>34505</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>39867</v>
+      </c>
+      <c r="H6" s="16">
+        <v>11.1</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="18">
+        <v>1924</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3132</v>
+      </c>
+      <c r="F7" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3618</v>
+      </c>
+      <c r="H7" s="10">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="17">
+        <v>97621</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="E11" s="17">
+        <v>167098</v>
+      </c>
+      <c r="F11" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G11" s="17">
+        <v>203685</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18">
+        <v>9719</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>15803</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G12" s="17">
+        <v>18610</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="I12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="19">
-        <v>97621</v>
-      </c>
-      <c r="D13" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="E13" s="19">
-        <v>167098</v>
-      </c>
-      <c r="F13" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G13" s="19">
-        <v>203685</v>
-      </c>
-      <c r="H13" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="18">
+        <v>580</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="18">
+        <v>938</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1102</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4.7</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="17">
+        <v>334290</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="17">
+        <v>566607</v>
+      </c>
+      <c r="F16" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="G16" s="17">
+        <v>675210</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="18">
+        <v>30959</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>50308</v>
+      </c>
+      <c r="F17" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="G17" s="17">
+        <v>58477</v>
+      </c>
+      <c r="H17" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I17" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="19">
-        <v>334290</v>
-      </c>
-      <c r="D20" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="19">
-        <v>566607</v>
-      </c>
-      <c r="F20" s="19">
-        <v>7.4</v>
-      </c>
-      <c r="G20" s="19">
-        <v>675210</v>
-      </c>
-      <c r="H20" s="19">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2504</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4070</v>
+      </c>
+      <c r="F18" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I20" t="s">
-        <v>37</v>
+      <c r="G18" s="18">
+        <v>4720</v>
+      </c>
+      <c r="H18" s="10">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
+      <c r="C21" s="13" t="str">
+        <f>IF(C5+C11=C16,"ok","revisar")</f>
+        <v>ok</v>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f>IF(E5+E11=E16,"ok","revisar")</f>
+        <v>ok</v>
+      </c>
+      <c r="G21" s="13" t="str">
+        <f>IF(G5+G11=G16,"ok","revisar")</f>
+        <v>ok</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="C22" s="13" t="str">
+        <f t="shared" ref="C22:C23" si="0">IF(C6+C12=C17,"ok","revisar")</f>
+        <v>ok</v>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f t="shared" ref="E22:E23" si="1">IF(E6+E12=E17,"ok","revisar")</f>
+        <v>ok</v>
+      </c>
+      <c r="G22" s="13" t="str">
+        <f t="shared" ref="G22:G23" si="2">IF(G6+G12=G17,"ok","revisar")</f>
+        <v>ok</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="16" t="str">
-        <f t="shared" ref="C27:H27" si="0">IF(C5+C13=C20,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="E27" s="16" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
-      <c r="G27" s="16" t="str">
-        <f>IF(G5+G13=G20,"ok","revisar")</f>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="16" t="str">
-        <f t="shared" ref="C28" si="1">IF(C6+C14=C21,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="E28" s="16" t="str">
-        <f t="shared" ref="E28" si="2">IF(E6+E14=E21,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="G28" s="16" t="e">
-        <f t="shared" ref="G28:G31" si="3">IF(G6+G14=G21,"ok","revisar")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="16" t="str">
-        <f t="shared" ref="C29" si="4">IF(C7+C15=C22,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="E29" s="16" t="str">
-        <f t="shared" ref="E29" si="5">IF(E7+E15=E22,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="G29" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="16" t="str">
-        <f t="shared" ref="C30" si="6">IF(C8+C16=C23,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="E30" s="16" t="str">
-        <f t="shared" ref="E30" si="7">IF(E8+E16=E23,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="G30" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="16" t="str">
-        <f t="shared" ref="C31" si="8">IF(C9+C17=C24,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="E31" s="16" t="str">
-        <f t="shared" ref="E31" si="9">IF(E9+E17=E24,"ok","revisar")</f>
-        <v>ok</v>
-      </c>
-      <c r="G31" s="16" t="str">
-        <f t="shared" si="3"/>
+      <c r="G23" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2314,20 +2356,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01952B8-91AA-4663-B08A-9098432C8726}">
   <dimension ref="B2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
@@ -2337,42 +2379,42 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
